--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Location</t>
   </si>
@@ -50,121 +50,121 @@
     <t>r04c11</t>
   </si>
   <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r01c01</t>
+  </si>
+  <si>
+    <t>Compound_1</t>
+  </si>
+  <si>
+    <t>Compound_9</t>
+  </si>
+  <si>
+    <t>r01c03</t>
+  </si>
+  <si>
+    <t>Compound_17</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
+    <t>Compound_2</t>
+  </si>
+  <si>
+    <t>r02c02</t>
+  </si>
+  <si>
+    <t>Compound_10</t>
+  </si>
+  <si>
+    <t>r02c03</t>
+  </si>
+  <si>
+    <t>untreated</t>
+  </si>
+  <si>
+    <t>r03c01</t>
+  </si>
+  <si>
+    <t>Compound_3</t>
+  </si>
+  <si>
+    <t>r03c02</t>
+  </si>
+  <si>
+    <t>Compound_11</t>
+  </si>
+  <si>
+    <t>r03c03</t>
+  </si>
+  <si>
+    <t>Compound_4</t>
+  </si>
+  <si>
+    <t>r04c02</t>
+  </si>
+  <si>
+    <t>Compound_12</t>
+  </si>
+  <si>
+    <t>r04c03</t>
+  </si>
+  <si>
+    <t>r05c01</t>
+  </si>
+  <si>
+    <t>Compound_5</t>
+  </si>
+  <si>
+    <t>r05c02</t>
+  </si>
+  <si>
+    <t>Compound_13</t>
+  </si>
+  <si>
+    <t>r05c03</t>
+  </si>
+  <si>
+    <t>r06c01</t>
+  </si>
+  <si>
+    <t>Compound_6</t>
+  </si>
+  <si>
+    <t>r06c02</t>
+  </si>
+  <si>
+    <t>Compound_14</t>
+  </si>
+  <si>
+    <t>r06c03</t>
+  </si>
+  <si>
+    <t>r07c01</t>
+  </si>
+  <si>
+    <t>Compound_7</t>
+  </si>
+  <si>
     <t>r07c02</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r01c01</t>
-  </si>
-  <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_9</t>
-  </si>
-  <si>
-    <t>r01c03</t>
-  </si>
-  <si>
-    <t>Compound_17</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>Compound_2</t>
-  </si>
-  <si>
-    <t>r02c02</t>
-  </si>
-  <si>
-    <t>Compound_10</t>
-  </si>
-  <si>
-    <t>r02c03</t>
-  </si>
-  <si>
-    <t>untreated</t>
-  </si>
-  <si>
-    <t>r03c01</t>
-  </si>
-  <si>
-    <t>Compound_3</t>
-  </si>
-  <si>
-    <t>r03c02</t>
-  </si>
-  <si>
-    <t>Compound_11</t>
-  </si>
-  <si>
-    <t>r03c03</t>
-  </si>
-  <si>
-    <t>Compound_4</t>
-  </si>
-  <si>
-    <t>r04c02</t>
-  </si>
-  <si>
-    <t>Compound_12</t>
-  </si>
-  <si>
-    <t>r04c03</t>
-  </si>
-  <si>
-    <t>r05c01</t>
-  </si>
-  <si>
-    <t>Compound_5</t>
-  </si>
-  <si>
-    <t>r05c02</t>
-  </si>
-  <si>
-    <t>Compound_13</t>
-  </si>
-  <si>
-    <t>r05c03</t>
-  </si>
-  <si>
-    <t>r06c01</t>
-  </si>
-  <si>
-    <t>Compound_6</t>
-  </si>
-  <si>
-    <t>r06c02</t>
-  </si>
-  <si>
-    <t>Compound_14</t>
-  </si>
-  <si>
-    <t>r06c03</t>
-  </si>
-  <si>
-    <t>r07c01</t>
-  </si>
-  <si>
-    <t>Compound_7</t>
   </si>
   <si>
     <t>Compound_15</t>
@@ -561,16 +561,16 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -612,14 +612,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
@@ -2229,10 +2222,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2240,63 +2233,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -2304,84 +2297,84 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>51</v>
@@ -2392,12 +2385,12 @@
         <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>53</v>
@@ -2413,10 +2406,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -50,127 +50,127 @@
     <t>r04c11</t>
   </si>
   <si>
+    <t>r07c02</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r01c01</t>
+  </si>
+  <si>
+    <t>Compound_1</t>
+  </si>
+  <si>
+    <t>Compound_9</t>
+  </si>
+  <si>
+    <t>r01c03</t>
+  </si>
+  <si>
+    <t>Compound_17</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
+    <t>Compound_2</t>
+  </si>
+  <si>
+    <t>r02c02</t>
+  </si>
+  <si>
+    <t>Compound_10</t>
+  </si>
+  <si>
+    <t>r02c03</t>
+  </si>
+  <si>
+    <t>untreated</t>
+  </si>
+  <si>
+    <t>r03c01</t>
+  </si>
+  <si>
+    <t>Compound_3</t>
+  </si>
+  <si>
+    <t>r03c02</t>
+  </si>
+  <si>
+    <t>Compound_11</t>
+  </si>
+  <si>
+    <t>r03c03</t>
+  </si>
+  <si>
+    <t>Compound_4</t>
+  </si>
+  <si>
+    <t>r04c02</t>
+  </si>
+  <si>
+    <t>Compound_12</t>
+  </si>
+  <si>
+    <t>r04c03</t>
+  </si>
+  <si>
+    <t>r05c01</t>
+  </si>
+  <si>
+    <t>Compound_5</t>
+  </si>
+  <si>
+    <t>r05c02</t>
+  </si>
+  <si>
+    <t>Compound_13</t>
+  </si>
+  <si>
+    <t>r05c03</t>
+  </si>
+  <si>
+    <t>r06c01</t>
+  </si>
+  <si>
+    <t>Compound_6</t>
+  </si>
+  <si>
+    <t>r06c02</t>
+  </si>
+  <si>
+    <t>Compound_14</t>
+  </si>
+  <si>
+    <t>r06c03</t>
+  </si>
+  <si>
+    <t>r07c01</t>
+  </si>
+  <si>
+    <t>Compound_7</t>
+  </si>
+  <si>
+    <t>Compound_15</t>
+  </si>
+  <si>
+    <t>r07c03</t>
+  </si>
+  <si>
     <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r01c01</t>
-  </si>
-  <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_9</t>
-  </si>
-  <si>
-    <t>r01c03</t>
-  </si>
-  <si>
-    <t>Compound_17</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>Compound_2</t>
-  </si>
-  <si>
-    <t>r02c02</t>
-  </si>
-  <si>
-    <t>Compound_10</t>
-  </si>
-  <si>
-    <t>r02c03</t>
-  </si>
-  <si>
-    <t>untreated</t>
-  </si>
-  <si>
-    <t>r03c01</t>
-  </si>
-  <si>
-    <t>Compound_3</t>
-  </si>
-  <si>
-    <t>r03c02</t>
-  </si>
-  <si>
-    <t>Compound_11</t>
-  </si>
-  <si>
-    <t>r03c03</t>
-  </si>
-  <si>
-    <t>Compound_4</t>
-  </si>
-  <si>
-    <t>r04c02</t>
-  </si>
-  <si>
-    <t>Compound_12</t>
-  </si>
-  <si>
-    <t>r04c03</t>
-  </si>
-  <si>
-    <t>r05c01</t>
-  </si>
-  <si>
-    <t>Compound_5</t>
-  </si>
-  <si>
-    <t>r05c02</t>
-  </si>
-  <si>
-    <t>Compound_13</t>
-  </si>
-  <si>
-    <t>r05c03</t>
-  </si>
-  <si>
-    <t>r06c01</t>
-  </si>
-  <si>
-    <t>Compound_6</t>
-  </si>
-  <si>
-    <t>r06c02</t>
-  </si>
-  <si>
-    <t>Compound_14</t>
-  </si>
-  <si>
-    <t>r06c03</t>
-  </si>
-  <si>
-    <t>r07c01</t>
-  </si>
-  <si>
-    <t>Compound_7</t>
-  </si>
-  <si>
-    <t>r07c02</t>
-  </si>
-  <si>
-    <t>Compound_15</t>
-  </si>
-  <si>
-    <t>r07c03</t>
   </si>
   <si>
     <t>Compound_8</t>
@@ -561,12 +561,16 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>2.0</v>
@@ -574,15 +578,15 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>0.01</v>
@@ -590,7 +594,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -598,20 +602,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2374,15 +2371,15 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>28</v>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>53</v>

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="dEx0RZYhe5szzAM9mQYxV4+wCs1415upC8pXlqxjENw="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Location</t>
   </si>
@@ -50,7 +55,7 @@
     <t>r04c11</t>
   </si>
   <si>
-    <t>r07c02</t>
+    <t>r08c01</t>
   </si>
   <si>
     <t>r08c03</t>
@@ -68,133 +73,25 @@
     <t>r08c11</t>
   </si>
   <si>
-    <t>r01c01</t>
-  </si>
-  <si>
-    <t>Compound_1</t>
-  </si>
-  <si>
-    <t>Compound_9</t>
-  </si>
-  <si>
-    <t>r01c03</t>
-  </si>
-  <si>
-    <t>Compound_17</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>Compound_2</t>
-  </si>
-  <si>
-    <t>r02c02</t>
-  </si>
-  <si>
-    <t>Compound_10</t>
-  </si>
-  <si>
     <t>r02c03</t>
   </si>
   <si>
     <t>untreated</t>
   </si>
   <si>
-    <t>r03c01</t>
-  </si>
-  <si>
-    <t>Compound_3</t>
-  </si>
-  <si>
-    <t>r03c02</t>
-  </si>
-  <si>
-    <t>Compound_11</t>
-  </si>
-  <si>
     <t>r03c03</t>
-  </si>
-  <si>
-    <t>Compound_4</t>
-  </si>
-  <si>
-    <t>r04c02</t>
-  </si>
-  <si>
-    <t>Compound_12</t>
   </si>
   <si>
     <t>r04c03</t>
   </si>
   <si>
-    <t>r05c01</t>
-  </si>
-  <si>
-    <t>Compound_5</t>
-  </si>
-  <si>
-    <t>r05c02</t>
-  </si>
-  <si>
-    <t>Compound_13</t>
-  </si>
-  <si>
     <t>r05c03</t>
-  </si>
-  <si>
-    <t>r06c01</t>
-  </si>
-  <si>
-    <t>Compound_6</t>
-  </si>
-  <si>
-    <t>r06c02</t>
-  </si>
-  <si>
-    <t>Compound_14</t>
   </si>
   <si>
     <t>r06c03</t>
   </si>
   <si>
-    <t>r07c01</t>
-  </si>
-  <si>
-    <t>Compound_7</t>
-  </si>
-  <si>
-    <t>Compound_15</t>
-  </si>
-  <si>
     <t>r07c03</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>Compound_8</t>
-  </si>
-  <si>
-    <t>r08c02</t>
-  </si>
-  <si>
-    <t>Compound_16</t>
-  </si>
-  <si>
-    <t>r01c04</t>
-  </si>
-  <si>
-    <t>RPE</t>
-  </si>
-  <si>
-    <t>r02c04</t>
-  </si>
-  <si>
-    <t>r03c04</t>
-  </si>
-  <si>
-    <t>r04c04</t>
   </si>
 </sst>
 </file>
@@ -233,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,9 +142,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,16 +455,12 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2.0</v>
@@ -578,15 +468,15 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.01</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>0.01</v>
@@ -594,7 +484,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -602,13 +492,20 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1408,10 +1305,7 @@
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-    </row>
+    <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -2221,16 +2115,16 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -2238,208 +2132,106 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Location</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>r05c03</t>
-  </si>
-  <si>
-    <t>r06c03</t>
   </si>
   <si>
     <t>r07c03</t>
@@ -2153,20 +2150,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>r05c03</t>
-  </si>
-  <si>
-    <t>r07c03</t>
   </si>
 </sst>
 </file>
@@ -2142,20 +2139,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -2138,12 +2138,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>

--- a/rad_pipeline/week_three_fib_layout2.xlsx
+++ b/rad_pipeline/week_three_fib_layout2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -85,7 +85,7 @@
     <t>r04c03</t>
   </si>
   <si>
-    <t>r05c03</t>
+    <t>r07c03</t>
   </si>
 </sst>
 </file>
@@ -2138,8 +2138,12 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
